--- a/Data/Ingenieria_Civil_Informatica_Diurno_Nuevo.xlsx
+++ b/Data/Ingenieria_Civil_Informatica_Diurno_Nuevo.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\felip\Desktop\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\felip\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78EE0DBE-24B9-4108-B609-E7F002948E05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCD2A135-04F4-4D2A-9E53-A32915506E02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-20520" yWindow="2205" windowWidth="20640" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="65">
   <si>
     <t>courses</t>
   </si>
@@ -90,9 +90,6 @@
     <t>Ingles II</t>
   </si>
   <si>
-    <t>Diseño de Bases de Datos</t>
-  </si>
-  <si>
     <t>Ingles III</t>
   </si>
   <si>
@@ -135,9 +132,6 @@
     <t>Ingenieria y Sustentabilidad</t>
   </si>
   <si>
-    <t>Introduccion al Diseño en Ingenieria</t>
-  </si>
-  <si>
     <t>Introduccion a la Ingenieria Informatica</t>
   </si>
   <si>
@@ -156,18 +150,12 @@
     <t>Electricidad Magnetismo y Ondas</t>
   </si>
   <si>
-    <t>Diseño de Algoritmos</t>
-  </si>
-  <si>
     <t>Ecuaciones Diferenciales y Metodos Numericos</t>
   </si>
   <si>
     <t>Arquitectura de Computadores</t>
   </si>
   <si>
-    <t>Taller de Diseño de Ingenieria</t>
-  </si>
-  <si>
     <t>Estadistica Computacional</t>
   </si>
   <si>
@@ -183,9 +171,6 @@
     <t>Bases de Datos Avanzadas</t>
   </si>
   <si>
-    <t>Procesamiento de Señales e Imagenes</t>
-  </si>
-  <si>
     <t>Tecnicas de Ingenieria de Software</t>
   </si>
   <si>
@@ -234,7 +219,19 @@
     <t>Electivo II</t>
   </si>
   <si>
-    <t>Taller de Diseño en Ingenieria</t>
+    <t>Diseno de Bases de Datos</t>
+  </si>
+  <si>
+    <t>Introduccion al Diseno en Ingenieria</t>
+  </si>
+  <si>
+    <t>Diseno de Algoritmos</t>
+  </si>
+  <si>
+    <t>Procesamiento de Senales e Imagenes</t>
+  </si>
+  <si>
+    <t>Taller de Diseno en Ingenieria</t>
   </si>
 </sst>
 </file>
@@ -554,8 +551,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C59"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="I62" sqref="I62"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -571,7 +568,7 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
@@ -609,7 +606,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B5">
         <v>4</v>
@@ -620,7 +617,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>32</v>
+        <v>61</v>
       </c>
       <c r="B6">
         <v>6</v>
@@ -664,7 +661,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B10">
         <v>2</v>
@@ -675,7 +672,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B11">
         <v>6</v>
@@ -686,7 +683,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B12">
         <v>3</v>
@@ -697,7 +694,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B13">
         <v>6</v>
@@ -708,7 +705,7 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B14">
         <v>5</v>
@@ -719,7 +716,7 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B15">
         <v>6</v>
@@ -730,7 +727,7 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>39</v>
+        <v>62</v>
       </c>
       <c r="B16">
         <v>5</v>
@@ -763,7 +760,7 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B19">
         <v>6</v>
@@ -774,7 +771,7 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>17</v>
+        <v>60</v>
       </c>
       <c r="B20">
         <v>5</v>
@@ -785,7 +782,7 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B21">
         <v>6</v>
@@ -807,7 +804,7 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B23">
         <v>5</v>
@@ -829,7 +826,7 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B25">
         <v>5</v>
@@ -840,7 +837,7 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B26">
         <v>5</v>
@@ -851,7 +848,7 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B27">
         <v>6</v>
@@ -873,7 +870,7 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B29">
         <v>4</v>
@@ -884,7 +881,7 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B30">
         <v>3</v>
@@ -895,7 +892,7 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B31">
         <v>5</v>
@@ -906,7 +903,7 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B32">
         <v>6</v>
@@ -917,7 +914,7 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="B33">
         <v>5</v>
@@ -928,7 +925,7 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="B34">
         <v>6</v>
@@ -939,7 +936,7 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B35">
         <v>6</v>
@@ -950,7 +947,7 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B36">
         <v>3</v>
@@ -961,7 +958,7 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B37">
         <v>6</v>
@@ -972,7 +969,7 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B38">
         <v>5</v>
@@ -983,7 +980,7 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="B39">
         <v>6</v>
@@ -994,7 +991,7 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="B40">
         <v>5</v>
@@ -1005,7 +1002,7 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B41">
         <v>5</v>
@@ -1016,7 +1013,7 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="B42">
         <v>3</v>
@@ -1027,7 +1024,7 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B43">
         <v>5</v>
@@ -1038,7 +1035,7 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="B44">
         <v>5</v>
@@ -1049,7 +1046,7 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="B45">
         <v>6</v>
@@ -1060,7 +1057,7 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="B46">
         <v>5</v>
@@ -1071,7 +1068,7 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B47">
         <v>6</v>
@@ -1082,7 +1079,7 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="B48">
         <v>3</v>
@@ -1093,7 +1090,7 @@
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="B49">
         <v>6</v>
@@ -1104,7 +1101,7 @@
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B50">
         <v>6</v>
@@ -1115,7 +1112,7 @@
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B51">
         <v>6</v>
@@ -1126,7 +1123,7 @@
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B52">
         <v>6</v>
@@ -1137,7 +1134,7 @@
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B53">
         <v>6</v>
@@ -1148,7 +1145,7 @@
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B54">
         <v>6</v>
@@ -1159,7 +1156,7 @@
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B55">
         <v>6</v>
@@ -1170,7 +1167,7 @@
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B56">
         <v>6</v>
@@ -1181,7 +1178,7 @@
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="B57">
         <v>6</v>
@@ -1192,7 +1189,7 @@
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="B58">
         <v>6</v>
@@ -1203,7 +1200,7 @@
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B59">
         <v>30</v>
@@ -1222,8 +1219,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42E1BA0D-05C9-4698-82B7-C399187D24DE}">
   <dimension ref="A1:B88"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B63" sqref="B63"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1267,26 +1264,26 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>32</v>
+        <v>61</v>
       </c>
       <c r="B5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
+        <v>61</v>
+      </c>
+      <c r="B6" t="s">
         <v>32</v>
-      </c>
-      <c r="B6" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>32</v>
+        <v>61</v>
       </c>
       <c r="B7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
@@ -1294,23 +1291,23 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B9" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
+        <v>33</v>
+      </c>
+      <c r="B10" t="s">
         <v>35</v>
-      </c>
-      <c r="B10" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
@@ -1318,7 +1315,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
@@ -1326,23 +1323,23 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B13" t="s">
-        <v>39</v>
+        <v>62</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B14" t="s">
-        <v>39</v>
+        <v>62</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
@@ -1355,18 +1352,18 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B16" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B17" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
@@ -1374,36 +1371,36 @@
         <v>10</v>
       </c>
       <c r="B18" t="s">
-        <v>17</v>
+        <v>60</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B19" t="s">
-        <v>17</v>
+        <v>60</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B20" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
+        <v>36</v>
+      </c>
+      <c r="B21" t="s">
         <v>38</v>
-      </c>
-      <c r="B21" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B22" t="s">
         <v>12</v>
@@ -1411,7 +1408,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>39</v>
+        <v>62</v>
       </c>
       <c r="B23" t="s">
         <v>12</v>
@@ -1422,7 +1419,7 @@
         <v>13</v>
       </c>
       <c r="B24" t="s">
-        <v>42</v>
+        <v>64</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.35">
@@ -1435,50 +1432,50 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B26" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B27" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B28" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>39</v>
+        <v>62</v>
       </c>
       <c r="B29" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B30" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B31" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.35">
@@ -1494,7 +1491,7 @@
         <v>12</v>
       </c>
       <c r="B33" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.35">
@@ -1502,7 +1499,7 @@
         <v>16</v>
       </c>
       <c r="B34" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.35">
@@ -1510,31 +1507,31 @@
         <v>16</v>
       </c>
       <c r="B35" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B36" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>17</v>
+        <v>60</v>
       </c>
       <c r="B37" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B38" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.35">
@@ -1542,15 +1539,15 @@
         <v>12</v>
       </c>
       <c r="B39" t="s">
-        <v>48</v>
+        <v>63</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>17</v>
+        <v>60</v>
       </c>
       <c r="B40" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.35">
@@ -1558,7 +1555,7 @@
         <v>15</v>
       </c>
       <c r="B41" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.35">
@@ -1566,71 +1563,71 @@
         <v>13</v>
       </c>
       <c r="B42" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B43" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B44" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B45" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B46" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B47" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B48" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B49" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="B50" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.35">
@@ -1638,303 +1635,303 @@
         <v>15</v>
       </c>
       <c r="B51" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B52" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B53" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B54" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B55" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B56" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
+        <v>25</v>
+      </c>
+      <c r="B57" t="s">
         <v>26</v>
-      </c>
-      <c r="B57" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B58" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="B59" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B60" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
+        <v>46</v>
+      </c>
+      <c r="B61" t="s">
         <v>51</v>
-      </c>
-      <c r="B61" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
+        <v>47</v>
+      </c>
+      <c r="B62" t="s">
         <v>52</v>
-      </c>
-      <c r="B62" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B63" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="B64" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B65" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B66" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B67" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B68" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="B69" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="B70" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B71" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="B72" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="B73" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B74" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
+        <v>52</v>
+      </c>
+      <c r="B75" t="s">
         <v>57</v>
-      </c>
-      <c r="B75" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B76" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="B77" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="B78" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B79" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B80" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B81" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
+        <v>53</v>
+      </c>
+      <c r="B82" t="s">
         <v>58</v>
-      </c>
-      <c r="B82" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="B83" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B84" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="B85" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B86" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B87" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="B88" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -1946,7 +1943,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6544C374-C5EF-4955-87C2-B0877EDFB0AE}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
@@ -1962,7 +1959,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B2">
         <v>11</v>
